--- a/数据整理/stocks/A股/深证主板/002407-多氟多.xlsx
+++ b/数据整理/stocks/A股/深证主板/002407-多氟多.xlsx
@@ -451,407 +451,547 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1273</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7800</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5409</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>000547</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>建信健康民生混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>89.71</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.93</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>288002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏收入混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>240004</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝动力组合混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>88.16</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003834</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏能源革新股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>92.63</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003980</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003981</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005299</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005300</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005434</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华睿投灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>62.97</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005571</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>74.65</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005572</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>74.65</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006233</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>万家汽车新趋势混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006234</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>万家汽车新趋势混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -861,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,15 +1022,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003980</t>
+          <t>003834</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银证券瑞益灵活配置混合A</t>
+          <t>华夏能源革新股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>162.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2511</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003981</t>
+          <t>240004</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银证券瑞益灵活配置混合C</t>
+          <t>华宝动力组合混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6992</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004423</t>
+          <t>009147</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商研究精选灵活配置混合</t>
+          <t>建信新能源行业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>86.72</t>
+          <t>26.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6864</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005571</t>
+          <t>000654</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合A</t>
+          <t>华商新锐产业灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>12.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.97</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3772</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005572</t>
+          <t>009368</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合C</t>
+          <t>浦银安盛价值精选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.97</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2997</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006233</t>
+          <t>519126</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家汽车新趋势混合A</t>
+          <t>浦银安盛新经济结构灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2670</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>240004</t>
+          <t>630011</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华宝动力组合混合</t>
+          <t>华商主题精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.06</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9.31</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>310368</t>
+          <t>008961</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>申万菱信竞争优势混合</t>
+          <t>华商科技创新混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>88.29</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000654</t>
+          <t>004423</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华商新锐产业灵活配置混合</t>
+          <t>华商研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>82.80</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>501097</t>
+          <t>005571</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+          <t>中银证券新能源灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>23.57</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519126</t>
+          <t>003980</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>浦银安盛新经济结构灵活配置混合</t>
+          <t>中银证券瑞益灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>88.73</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>630011</t>
+          <t>003567</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华商主题精选混合</t>
+          <t>华夏行业景气混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>88.28</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005161</t>
+          <t>006233</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华商上游产业股票</t>
+          <t>万家汽车新趋势混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>83.09</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008961</t>
+          <t>501097</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华商科技创新混合</t>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>85.75</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003567</t>
+          <t>009369</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华夏行业景气混合</t>
+          <t>浦银安盛价值精选混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>003834</t>
+          <t>005572</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华夏能源革新股票</t>
+          <t>中银证券新能源灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>88.97</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009147</t>
+          <t>310368</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>建信新能源行业股票</t>
+          <t>申万菱信竞争优势混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>82.28</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009368</t>
+          <t>003981</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>浦银安盛价值精选混合A</t>
+          <t>中银证券瑞益灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>89.78</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009369</t>
+          <t>005161</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>浦银安盛价值精选混合C</t>
+          <t>华商上游产业股票</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>89.78</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002407-多氟多.xlsx
+++ b/数据整理/stocks/A股/深证主板/002407-多氟多.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1771,4 +1772,1086 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>224.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.6054</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8532</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8210</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6261</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5496</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4162</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002407-多氟多.xlsx
+++ b/数据整理/stocks/A股/深证主板/002407-多氟多.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2854,4 +2855,1538 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2801</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8380</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4260</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4082</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011899</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3654</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3219</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2976</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2679</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009048</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新优选三年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>38.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>63.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002407-多氟多.xlsx
+++ b/数据整理/stocks/A股/深证主板/002407-多氟多.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4389,4 +4390,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.140000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002407-多氟多.xlsx
+++ b/数据整理/stocks/A股/深证主板/002407-多氟多.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4398,7 +4399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4409,17 +4410,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4429,14 +4450,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.83</v>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1650</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4445,14 +4488,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.47</v>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4013</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4461,14 +4526,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.140000000000001</v>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3646</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4477,13 +4564,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2711</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.140000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002407-多氟多.xlsx
+++ b/数据整理/stocks/A股/深证主板/002407-多氟多.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4835,7 +4836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4846,17 +4847,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4866,14 +4887,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.43</v>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4882,14 +4925,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.83</v>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4898,14 +4963,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D4" t="n">
-        <v>13.47</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="5">
@@ -4914,14 +5085,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>9.140000000000001</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="6">
@@ -4930,13 +5101,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.140000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002407-多氟多.xlsx
+++ b/数据整理/stocks/A股/深证主板/002407-多氟多.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5006,7 +5007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5017,17 +5018,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5037,14 +5058,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>424.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2907</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5053,14 +5096,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.43</v>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -5069,14 +5134,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.83</v>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1849</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -5085,14 +5172,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>27</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.47</v>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1801</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -5101,14 +5210,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>19</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.140000000000001</v>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -5117,13 +5248,2537 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014179</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013878</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014180</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015328</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013879</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015245</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南华丰汇混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>015329</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015407</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合E</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>68</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.140000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>13</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002407-多氟多.xlsx
+++ b/数据整理/stocks/A股/深证主板/002407-多氟多.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>4.83</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
-        <v>0.12</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2.43</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>5.83</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n">
-        <v>13.47</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>9.140000000000001</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.140000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>13</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>5.86</v>
       </c>
     </row>
@@ -600,6 +617,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014179</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014180</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159620</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证智选500成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012926</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012927</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3237,7 +3842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3407,7 +4012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3843,7 +4448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5377,7 +5982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6459,7 +7064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7237,7 +7842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002407-多氟多.xlsx
+++ b/数据整理/stocks/A股/深证主板/002407-多氟多.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>4.83</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2.43</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>5.83</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>13.47</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>9.140000000000001</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,580 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.140000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>13</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>5.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1273</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7800</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5409</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1184,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014179</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1204,7 +2169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3842,7 +4807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4012,7 +4977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4448,7 +5413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5982,7 +6947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7064,7 +8029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7840,554 +8805,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003834</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏能源革新股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>103.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.63</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.1273</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>288002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏收入混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>27.66</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7800</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>240004</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝动力组合混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5409</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005299</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1085</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000547</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信健康民生混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0562</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006233</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>万家汽车新趋势混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0503</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003980</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0494</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005434</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华睿投灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>62.97</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0413</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005571</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>74.65</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0398</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005300</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0358</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005572</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>74.65</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006234</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>万家汽车新趋势混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003981</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>